--- a/Tests/Hardwaretests.xlsx
+++ b/Tests/Hardwaretests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivo\Documents\GitHub\ModExpES\Dokumentation\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivoto\Documents\GitHub\ModExpES\Dokumentation\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A144F7B-C7B2-4B08-AB58-8F4443AAF60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF8AF8-2D2C-4FCF-BBFE-B9F8DC6A9967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35805" yWindow="3375" windowWidth="28800" windowHeight="15345" xr2:uid="{D23A9FB3-C7C5-4CDC-9C46-DB0250B339AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D23A9FB3-C7C5-4CDC-9C46-DB0250B339AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Testnummer</t>
   </si>
@@ -64,6 +64,33 @@
   </si>
   <si>
     <t xml:space="preserve">Der Mikrocontroller soll sich zurücksetzen. </t>
+  </si>
+  <si>
+    <t>Strom wird an einer Klemme angeschlossen</t>
+  </si>
+  <si>
+    <t>An dem gegenüberlegenden Port lässt sich diese Spannung Messen</t>
+  </si>
+  <si>
+    <t>Zu viel Strom (2A) wird an einer Klemme angeschlossen</t>
+  </si>
+  <si>
+    <t>Die zugehörige Sicherung wird warm und schließt.</t>
+  </si>
+  <si>
+    <t>Signal wird an BNC angelegt</t>
+  </si>
+  <si>
+    <t>Zu viel Strom wird über den 5V Port abgerufen</t>
+  </si>
+  <si>
+    <t>Die Sicherung der 5V Spannungsversorung brennt durch</t>
+  </si>
+  <si>
+    <t>Zu viel Strom wird über den 3.3V Port abgerufen</t>
+  </si>
+  <si>
+    <t>Die Sicherung der 3.3V Spannungsversorung brennt durch</t>
   </si>
 </sst>
 </file>
@@ -418,17 +445,17 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -464,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -475,162 +502,192 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>

--- a/Tests/Hardwaretests.xlsx
+++ b/Tests/Hardwaretests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivoto\Documents\GitHub\ModExpES\Dokumentation\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivo\Documents\GitHub\ModExpES\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF8AF8-2D2C-4FCF-BBFE-B9F8DC6A9967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EF35D1-FA42-4AC0-BF1F-DD87788EAFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D23A9FB3-C7C5-4CDC-9C46-DB0250B339AE}"/>
+    <workbookView xWindow="5295" yWindow="3675" windowWidth="28800" windowHeight="15345" xr2:uid="{D23A9FB3-C7C5-4CDC-9C46-DB0250B339AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Testnummer</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>Die Sicherung der 3.3V Spannungsversorung brennt durch</t>
+  </si>
+  <si>
+    <t>Durchfluss an den Klemmen 1-6 Prüfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchfluss an den BNC Stecker prüfen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es soll ein Kurzschluss gemessen werden. </t>
+  </si>
+  <si>
+    <t>Externer Debugger Prüfen</t>
+  </si>
+  <si>
+    <t>Nach dem einstecken und jumper auf BOOT0 Low setzten, sollte man mit dem Debugger Debuggen können.</t>
+  </si>
+  <si>
+    <t>An/Aus Schalter prüfen</t>
+  </si>
+  <si>
+    <t>Nach dem Ausschalten des Schalters, sollte die komplette Spannungsversorgung zum Breadboard und Mikrocontroller unterbrochen werden.</t>
   </si>
 </sst>
 </file>
@@ -445,17 +466,17 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -491,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -513,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -524,7 +545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -535,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -546,7 +567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -557,137 +578,161 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
